--- a/Codes/actual.xlsx
+++ b/Codes/actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,552 +458,792 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1254098360655738</v>
+        <v>0.2452336956521739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05438329132207705</v>
+        <v>0.07625788421599433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.02717391304347826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09353731343283582</v>
+        <v>0.2187953488372093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0510232721902936</v>
+        <v>0.07309554313062679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.03255813953488372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.12440625</v>
+        <v>0.2108045112781955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05403488671755843</v>
+        <v>0.07128774824127984</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04511278195488722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1221383647798742</v>
+        <v>0.2142307692307693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05364121439884355</v>
+        <v>0.07295976374524389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1143027027027027</v>
+        <v>0.2309553072625698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05209205471433687</v>
+        <v>0.07567249179233956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.06145251396648044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1204244604316547</v>
+        <v>0.2066645569620253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05604816508769996</v>
+        <v>0.0744594202033363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04316546762589928</v>
+        <v>0.006329113924050633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1193085106382979</v>
+        <v>0.2362622950819672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0580560683869482</v>
+        <v>0.08323965824355246</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.06557377049180328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1404656488549618</v>
+        <v>0.2517333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05664150443395027</v>
+        <v>0.08119943268636111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1107179487179487</v>
+        <v>0.1953571428571429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05242774559768187</v>
+        <v>0.07739217912161474</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.04285714285714286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1116913580246914</v>
+        <v>0.1692878787878788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05299381685481017</v>
+        <v>0.07179948706428958</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.02525252525252525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1218944444444444</v>
+        <v>0.2040950226244344</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05425388073354499</v>
+        <v>0.07913575991496873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.03167420814479638</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1261379310344828</v>
+        <v>0.202781690140845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05605134680998387</v>
+        <v>0.07666432773137258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.04929577464788732</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1272982456140351</v>
+        <v>0.1922370689655172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05574266031101061</v>
+        <v>0.07445951299929054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04093567251461988</v>
+        <v>0.08189655172413793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1078888888888889</v>
+        <v>0.1704972375690608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05346224984691041</v>
+        <v>0.07569722263864777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0582010582010582</v>
+        <v>0.03867403314917127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1274940476190476</v>
+        <v>0.1803694779116466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05630203292557749</v>
+        <v>0.07201900378982273</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1141736526946108</v>
+        <v>0.1932557077625571</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05607554536432203</v>
+        <v>0.07715176937134909</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09580838323353294</v>
+        <v>0.0639269406392694</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1135904761904762</v>
+        <v>0.1962272727272727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05598283618512574</v>
+        <v>0.07916808004063508</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08095238095238096</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1203353293413174</v>
+        <v>0.2018838383838384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05548113581334403</v>
+        <v>0.08115822606412346</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05389221556886228</v>
+        <v>0.0707070707070707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1000217391304348</v>
+        <v>0.206294964028777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05220526637218567</v>
+        <v>0.08502299833709862</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05035971223021583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1186452991452992</v>
+        <v>0.214964824120603</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05644983206816725</v>
+        <v>0.08195337221047745</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.06030150753768844</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1161977401129944</v>
+        <v>0.204264705882353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05545460889397289</v>
+        <v>0.08016976439423283</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05649717514124294</v>
+        <v>0.06722689075630252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.119537037037037</v>
+        <v>0.1894669603524229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05654092199750829</v>
+        <v>0.07870164844272644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04629629629629629</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1102888888888889</v>
+        <v>0.201068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05432970751233939</v>
+        <v>0.0785672622445006</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1062413793103448</v>
+        <v>0.1904131736526946</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05438657308496466</v>
+        <v>0.08017476686306156</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04137931034482759</v>
+        <v>0.07784431137724551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.109209756097561</v>
+        <v>0.2102642276422764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0553345274329614</v>
+        <v>0.08246531335629319</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.08536585365853659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1092291666666667</v>
+        <v>0.179</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05629778595465757</v>
+        <v>0.08063651658261986</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0948905109489051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1017428571428571</v>
+        <v>0.2227432950191571</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05279105041185832</v>
+        <v>0.08585717320263304</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05142857142857143</v>
+        <v>0.09961685823754789</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1099358974358974</v>
+        <v>0.2173224489795918</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05563155533585337</v>
+        <v>0.08902908591711303</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03205128205128205</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1309315068493151</v>
+        <v>0.1989329073482428</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05822238497539778</v>
+        <v>0.08523935323177595</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00684931506849315</v>
+        <v>0.121405750798722</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.100365671641791</v>
+        <v>0.2151535580524344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05569898975699551</v>
+        <v>0.08849955441104917</v>
       </c>
       <c r="D31" t="n">
-        <v>0.007462686567164179</v>
+        <v>0.101123595505618</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08904761904761904</v>
+        <v>0.1583803418803419</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05596191347670054</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>0.07088239017554465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07264957264957266</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1178421052631579</v>
+        <v>0.1521701388888889</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05732288374563485</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>0.06905356148123959</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.06597222222222222</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1418692307692308</v>
+        <v>0.1566885964912281</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05704067470977023</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>0.07280516314251759</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.06578947368421052</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0992</v>
+        <v>0.1602518796992481</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0531776447707543</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>0.07039261292660469</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.06015037593984962</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.151875</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.06777325351366427</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1679144385026738</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.07340930738073374</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.053475935828877</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1425528455284553</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06794013183796302</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.07723577235772358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1684607329842932</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.07821407312578435</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.06282722513089005</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1516875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.07108700229533718</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.05803571428571429</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1708405797101449</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.07542693807462626</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.04830917874396135</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1734761904761905</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.07482843479211003</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1583333333333333</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.07786542947891908</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1670584795321637</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.08347945009561779</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01169590643274854</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1720379746835443</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0761099691109981</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0189873417721519</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1933282828282828</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.08330743485473679</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.005050505050505051</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1593774834437086</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.07801395672777747</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>2023-11</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.08944444444444445</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.05069579004279649</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>0.1236413043478261</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.06126595883281324</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1423846153846154</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.06460102723378347</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.091841059602649</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.05182762340658766</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0961</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05477475666092142</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
